--- a/SpecificationForLibrary-Z.xlsx
+++ b/SpecificationForLibrary-Z.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="2" r:id="rId1"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -393,10 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nfc_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CHAR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,18 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャットワークユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cw_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int? CHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Book Table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,14 +501,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Borrowing_log</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>borrowing_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>借りたユーザーid</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -582,10 +554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_finished</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,10 +624,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cw_task_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User Table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,6 +830,42 @@
   </si>
   <si>
     <t>image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nfc_device_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Borrowing_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットワークAPIトークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chatwork_api_token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chatwork_task_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1008,8 +1008,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1064,6 +1068,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,8 +1083,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,14 +1095,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1107,6 +1111,8 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1122,6 +1128,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3129,10 +3137,10 @@
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3153,8 +3161,8 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
@@ -3171,8 +3179,8 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3191,10 +3199,10 @@
       <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3215,8 +3223,8 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3233,8 +3241,8 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3255,8 +3263,8 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
@@ -3273,8 +3281,8 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3291,8 +3299,8 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
@@ -3304,13 +3312,13 @@
         <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3327,7 +3335,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="5" t="s">
         <v>18</v>
       </c>
@@ -3349,10 +3357,10 @@
       <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3368,13 +3376,13 @@
         <v>12</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
@@ -3385,8 +3393,8 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3401,8 +3409,8 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
@@ -3413,8 +3421,8 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
@@ -3425,8 +3433,8 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3445,8 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
@@ -3449,8 +3457,8 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4" t="s">
         <v>19</v>
       </c>
@@ -3461,17 +3469,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D21"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3489,7 +3497,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3500,10 +3508,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
@@ -3515,10 +3523,10 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -3528,7 +3536,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>39</v>
@@ -3544,40 +3552,40 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
       </c>
       <c r="E11">
         <v>64</v>
@@ -3585,13 +3593,13 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -3599,64 +3607,64 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>128</v>
@@ -3664,27 +3672,27 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -3695,38 +3703,38 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -3734,97 +3742,97 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3833,38 +3841,38 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3900,7 @@
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3950,95 +3958,96 @@
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19"/>
+        <v>103</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="Q5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="Q6" t="s">
         <v>116</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="Q6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="I7" s="11"/>
       <c r="Q7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="Q8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="Q9" t="s">
         <v>115</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="Q9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="19"/>
+        <v>121</v>
+      </c>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4063,26 +4072,26 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
